--- a/Excel/Relics.xlsx
+++ b/Excel/Relics.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19680" windowHeight="12645"/>
+    <workbookView windowWidth="17115" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>$HEAD</t>
   </si>
@@ -34,13 +34,16 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
     <t>SealedWand</t>
   </si>
   <si>
     <t>封印之杖</t>
   </si>
   <si>
-    <t>每次使用库洛牌时会叠加1次计数，达到？层时消耗所有计数，添加一张“转变”到手牌中。</t>
+    <t>每次使用库洛牌时会叠加1次计数，达到100层时消耗所有计数，添加1张“转变”到手牌中。</t>
   </si>
   <si>
     <t>SealedBook</t>
@@ -58,7 +61,7 @@
     <t>星之杖</t>
   </si>
   <si>
-    <t>每次使用库洛牌时会叠加1次计数，达到？层时消耗所有计数，添加一张“转变”到手牌中。当你的遗物同时存在“星之杖”“可鲁贝洛斯”“月”时，失去这些遗物，并获得日月星杖。</t>
+    <t>每次使用库洛牌时会叠加1次计数，达到80层时消耗所有计数，添加1张“转变”到手牌中。当你的遗物同时存在“星之杖”“可鲁贝洛斯”“月”时，失去这些遗物，并获得日月星杖。</t>
   </si>
   <si>
     <t>SunWand</t>
@@ -67,7 +70,7 @@
     <t>日之杖</t>
   </si>
   <si>
-    <t>战斗开始时，给与所有敌人？层“光元素”“暗元素”。</t>
+    <t>战斗开始时，给与所有敌人2层“光元素”“暗元素”。</t>
   </si>
   <si>
     <t>SunMoonStarWand</t>
@@ -76,13 +79,16 @@
     <t>日月星杖</t>
   </si>
   <si>
+    <t>每次使用库洛牌时会叠加1次计数，达到50层时消耗所有计数，添加1张“转变”到手牌中。你的回合开始时，获得2点额外能量，对所有敌人造成？点伤害，并给与“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”各？层；你的出牌阶段开始时，随机强化你手牌中的2张牌；</t>
+  </si>
+  <si>
     <t>Cerberus</t>
   </si>
   <si>
     <t>可鲁贝洛斯</t>
   </si>
   <si>
-    <t>回合开始时，对一名随机敌人造成？点伤害，并给于一层“火元素”。当你的遗物同时存在“星之杖”“可鲁贝洛斯”“月”时，失去这些遗物，并获得日月星杖。</t>
+    <t>回合开始时，对1名随机敌人造成5点伤害，并给于2层“火元素”。当你的遗物同时存在“星之杖”“可鲁贝洛斯”“月”时，失去这些遗物，并获得日月星杖。</t>
   </si>
   <si>
     <t>Yue</t>
@@ -91,7 +97,7 @@
     <t>月</t>
   </si>
   <si>
-    <t xml:space="preserve">你的出牌阶段开始时，随机强化你手牌中的一张牌。当你的遗物同时存在“星之杖”“可鲁贝洛斯”“月”时，失去这些遗物，并获得日月星杖。 </t>
+    <t xml:space="preserve">你的出牌阶段开始时，随机强化你手牌中的1张牌。当你的遗物同时存在“星之杖”“可鲁贝洛斯”“月”时，失去这些遗物，并获得日月星杖。 </t>
   </si>
   <si>
     <t>Compass</t>
@@ -100,7 +106,7 @@
     <t>罗盘</t>
   </si>
   <si>
-    <t>战斗开始时，在三张卡中选择最多一张加入手卡，并在这回合耗能为0。战斗结束后将其加入你的卡组。</t>
+    <t>战斗开始时，在3张库洛牌卡中选择最多1张加入手卡，并在这回合耗能为0。战斗结束后将其加入你的卡组。</t>
   </si>
   <si>
     <t>SwordJade</t>
@@ -109,7 +115,7 @@
     <t>剑玉</t>
   </si>
   <si>
-    <t>回合开始时，将一张空道符加入手卡。</t>
+    <t>回合开始时，将1张空道符加入手卡。</t>
   </si>
   <si>
     <t>TomoyosHeart</t>
@@ -118,19 +124,20 @@
     <t>知识的心</t>
   </si>
   <si>
-    <t>每次使用库洛牌时会叠加1次计数，达到？层时消耗所有计数，添加一张“转变”到手牌中。你的回合开始时，获得2点额外能量，对所有敌人造成？点伤害，并给与“地元素”“水元素”“火元素”“风元素”“光元素”“暗元素”各？层；你的出牌阶段开始时，随机强化你手牌中的2张牌；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，在？点格挡、？点治疗、？层活动肌肉、？点能量、额外抽？张牌中随机获得一个效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>回合开始时，在8点格挡、3点治疗、3层活动肌肉、2点能量、额外抽2张牌中随机获得一个效果。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,21 +146,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -161,9 +492,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -175,10 +748,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -440,19 +1060,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -495,118 +1116,124 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Relics.xlsx
+++ b/Excel/Relics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>$HEAD</t>
   </si>
@@ -115,7 +115,7 @@
     <t>剑玉</t>
   </si>
   <si>
-    <t>回合开始时，将1张空道符加入手卡。</t>
+    <t>每打出4张“库洛牌”或“小樱牌”，将1张空道符加入手卡。</t>
   </si>
   <si>
     <t>TomoyosHeart</t>
@@ -124,7 +124,16 @@
     <t>知识的心</t>
   </si>
   <si>
-    <t>回合开始时，在8点格挡、3点治疗、3层活动肌肉、2点能量、额外抽2张牌中随机获得一个效果。</t>
+    <t>回合开始时，在6点格挡、3点治疗、2层活动肌肉、1点能量、额外抽1张牌中随机获得一个效果。</t>
+  </si>
+  <si>
+    <t>MoonBell</t>
+  </si>
+  <si>
+    <t>月之铃</t>
+  </si>
+  <si>
+    <t>每打出1张2费以上的牌，获得4点格挡。受到致命伤害时，免疫死亡，生命值恢复到最大值的30%，并将一张“转”加入手牌失去该遗物的效果。</t>
   </si>
 </sst>
 </file>
@@ -132,12 +141,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,17 +155,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF222222"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +226,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -177,118 +304,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -299,18 +314,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,163 +476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +505,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,39 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -571,22 +592,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,141 +625,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,14 +1084,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1232,6 +1250,17 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Excel/Relics.xlsx
+++ b/Excel/Relics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17115" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -162,28 +162,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,21 +200,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,30 +230,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +289,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,19 +314,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,151 +476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,9 +510,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +549,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -564,26 +581,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,6 +1095,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
